--- a/data/trans_camb/P55_5-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P55_5-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -555,287 +564,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,92</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,56</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.728080110314018</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.685967904921545</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.230519105828895</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-15,13; 25,73</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,2; 4,28</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,16; 15,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.78079431827979</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.33647729599526</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.291489621756588</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>22,47%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-18,14%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,92%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>26.41723251746323</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.2077926008502</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.65177574257544</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-69,37; 238,13</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-62,15; 88,18</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-54,03; 150,42</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.2749842691361863</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.1958850811783955</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.0970438712147962</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-5,79</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,43</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.6536806845420031</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.6360711498987373</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.5049134866050354</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-14,58; 1,51</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 23,41</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,69; 10,45</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>2.410554111360145</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.8658679539434102</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.573904944275793</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-53,84%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>87,65%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9,75%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-5.628456435477503</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>6.500845729763884</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5212751807675566</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-87,25; 35,17</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-22,99; 431,02</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-42,79; 145,58</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.84864865766411</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.263247530419865</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.803977614172417</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-15,81</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-14,19</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-14,92</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.175213299942181</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>19.43985783998125</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.241700900141209</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-54,05; 12,25</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-30,62; -2,45</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-46,17; -0,97</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.5431169053003556</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.7887098091308645</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.05609677370202128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-52,94%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-81,88%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-62,94%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.8819186084556527</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2556979153101525</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.4409742573946911</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 101,05</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-96,99; 6,12</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.310945038920367</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>3.954290680532238</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.239910355556912</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -843,93 +776,205 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-2,17</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,75</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-14.59782671462929</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-15.65886074732909</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-14.96157994499806</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-12,22; 12,36</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,15; 8,16</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-7,0; 6,32</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-51.9471623877014</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-33.60197865346272</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-45.33153752915757</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-13,51%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>6,92%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-5,94%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>12.70667742239102</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-3.970632449584753</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-1.664107711880247</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-61,2; 115,83</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-37,18; 110,57</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-44,9; 62,26</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.5191627669232585</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.848825624275014</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.6440014269393796</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.9660769662495053</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="n">
+        <v>0.8062646617822572</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.03864600744280466</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-1.603893982349577</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.03229461016493324</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.7769138766928432</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-11.09263580718723</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.717301126318003</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-6.675518643057273</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>12.88478075096991</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.112178297134399</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>6.055554878992931</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.1032686918572407</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.003398552401844831</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.06251882388206799</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.5972348299097701</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.4158168371372647</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.4429168323557316</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>1.215283411245089</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.8104286824846836</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.6234196619121741</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -937,11 +982,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
